--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-80_remove/rem1/17/incorrect_predictions_17.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-80_remove/rem1/17/incorrect_predictions_17.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -612,51 +612,51 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
+          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery</t>
+          <t>GEO Zone Info: The target area is in an Altitude Zone</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0-12</t>
+          <t>0-10</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
+          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance is not available</t>
+          <t>GEO Zone Info:</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>6-10</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -671,67 +671,17 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone</t>
+          <t>The target area is in an Altitude Zone</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0-10</t>
+          <t>3-10</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Missing</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>19</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>GEO Zone Info:</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0-2</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
           <t>False</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>20</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>When exceeding nnn, Obstacle Avoidance is not available</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>6-13</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Missing</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-80_remove/rem1/17/incorrect_predictions_17.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-80_remove/rem1/17/incorrect_predictions_17.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -612,51 +612,51 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
+          <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone</t>
+          <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0-10</t>
+          <t>0-12</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
+          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>GEO Zone Info:</t>
+          <t>Obstacle Avoidance is not available</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>6-10</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>
@@ -671,17 +671,67 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>The target area is in an Altitude Zone</t>
+          <t>GEO Zone Info: The target area is in an Altitude Zone</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>3-10</t>
+          <t>0-10</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
+          <t>Missing</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>19</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>GEO Zone Info:</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0-2</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>20</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>When exceeding nnn, Obstacle Avoidance is not available</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6-13</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Missing</t>
         </is>
       </c>
     </row>
